--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1408219.448377116</v>
+        <v>-1408897.629684648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183196</v>
+        <v>311885.1970183202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>113.5870392834473</v>
       </c>
       <c r="E11" t="n">
-        <v>5.758864737813923</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>33.06238140451853</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407752</v>
+        <v>55.9381183540775</v>
       </c>
       <c r="V11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="C12" t="n">
-        <v>112.4084155782687</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332428</v>
+        <v>59.59073619997412</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V12" t="n">
         <v>46.43735102801259</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>108.0839953422693</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G14" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H14" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>108.083995342269</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>20.73635203332428</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394765</v>
+        <v>68.81460113316513</v>
       </c>
       <c r="V15" t="n">
-        <v>51.67883420080776</v>
+        <v>46.43735102801259</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962193</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="X15" t="n">
         <v>23.10134455208095</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924062</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258611</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363458</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304345</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142078</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427351</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653701</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605593126</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717419</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611342</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985719</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="18">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.4872185223608</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>6.14101078849124</v>
       </c>
       <c r="R18" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>50.00696465057956</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924068</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258617</v>
+        <v>29.55915463258635</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304351</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142083</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427357</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653706</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605594077</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717424</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611348</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985724</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>50.00696465057932</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>51.93601990319846</v>
@@ -2205,16 +2205,16 @@
         <v>6.14101078849124</v>
       </c>
       <c r="R21" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>65.55119861916306</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924068</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258617</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304351</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142083</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427357</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653706</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605593694</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717424</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611348</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985724</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>51.93601990319846</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>65.55119861916306</v>
+        <v>56.14797543907059</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1666563115508</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C26" t="n">
         <v>137.2849133148962</v>
@@ -2561,10 +2561,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G26" t="n">
         <v>205.9069232565836</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148495</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562562</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389504</v>
+        <v>9.498608495389446</v>
       </c>
       <c r="U26" t="n">
-        <v>37.2291041751846</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428694</v>
@@ -2618,7 +2618,7 @@
         <v>124.9758797594843</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8621302284236</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3649833521673</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>16.71199422134153</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>6.14101078849124</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3654897447971</v>
+        <v>13.25887675180036</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431367</v>
+        <v>2.02733785443131</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505474</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911967</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072902</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373188031</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774304</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503969</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631827</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380148</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816733</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305275</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959955</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885845</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1666563115508</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C29" t="n">
         <v>137.2849133148962</v>
@@ -2798,10 +2798,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G29" t="n">
         <v>205.9069232565836</v>
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148495</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562562</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389504</v>
+        <v>9.498608495389446</v>
       </c>
       <c r="U29" t="n">
-        <v>37.2291041751846</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V29" t="n">
         <v>107.9591995428694</v>
@@ -2855,7 +2855,7 @@
         <v>124.9758797594843</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8621302284236</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3649833521673</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>94.68913671098829</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319845</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491226</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431367</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276940613373</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78399951072902</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373188031</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.49721475849989</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503969</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631826</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380148</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816733</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305275</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959955</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885845</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1666563115508</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2849133148963</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759448</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F32" t="n">
-        <v>190.278665573731</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9069232565837</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9915850588472</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.677998071485</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562567</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389558</v>
+        <v>9.498608495389446</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518466</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9591995428695</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594844</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8621302284236</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521674</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>55.90988304086918</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491226</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431424</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505479</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072907</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373188088</v>
+        <v>75.48071509743217</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.4637020677431</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503974</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631832</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380153</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816739</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305281</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341960012</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885902</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328301</v>
+        <v>89.46094885328316</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510692</v>
+        <v>154.8880388510694</v>
       </c>
       <c r="G35" t="n">
-        <v>170.5162965339219</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H35" t="n">
-        <v>98.60095833618544</v>
+        <v>98.60095833618558</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522909</v>
+        <v>1.838477452523051</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020775</v>
+        <v>72.56857282020789</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682262</v>
+        <v>89.58525303682276</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295056</v>
+        <v>133.9743566295058</v>
       </c>
     </row>
     <row r="36">
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.141010788491226</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.11915764343483</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>18.39337278806747</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>210.8848023940402</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113978</v>
+        <v>40.34508522113992</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039106</v>
+        <v>41.9994963003912</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328301</v>
+        <v>89.46094885328316</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F38" t="n">
-        <v>154.8880388510692</v>
+        <v>154.8880388510694</v>
       </c>
       <c r="G38" t="n">
-        <v>170.5162965339219</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H38" t="n">
-        <v>98.60095833618544</v>
+        <v>98.60095833618558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522909</v>
+        <v>1.838477452523051</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020775</v>
+        <v>72.56857282020789</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682262</v>
+        <v>89.58525303682276</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.9743566295056</v>
+        <v>133.9743566295058</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.866930240557</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.1669324054735</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.141010788491226</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>40.37543723642064</v>
       </c>
       <c r="W39" t="n">
-        <v>18.39337278806732</v>
+        <v>18.39337278806747</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113978</v>
+        <v>40.34508522113992</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039106</v>
+        <v>41.9994963003912</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445979</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238687</v>
       </c>
       <c r="F41" t="n">
         <v>162.600667502246</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699638</v>
+        <v>9.551106103699681</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138452</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799939</v>
       </c>
       <c r="X41" t="n">
         <v>119.1841321569386</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H42" t="n">
         <v>125.6804106468432</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.8978651336239771</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,25 +3861,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.141010788491226</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>36.01461788000804</v>
+        <v>0.05033877763474948</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10600143924407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231655</v>
       </c>
       <c r="V43" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682408</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156783</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445979</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238687</v>
       </c>
       <c r="F44" t="n">
         <v>162.600667502246</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699652</v>
+        <v>9.551106103699667</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138452</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799939</v>
       </c>
       <c r="X44" t="n">
         <v>119.1841321569386</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491226</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>123.2263269213358</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>134.810673101426</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763472105</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924407</v>
+        <v>26.1060014392441</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231655</v>
       </c>
       <c r="V46" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682408</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156783</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>186.4401694334082</v>
+        <v>248.5019495296253</v>
       </c>
       <c r="C11" t="n">
-        <v>186.4401694334082</v>
+        <v>248.5019495296253</v>
       </c>
       <c r="D11" t="n">
-        <v>186.4401694334082</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="E11" t="n">
-        <v>180.6231343447072</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="F11" t="n">
-        <v>56.67246123959917</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="G11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J11" t="n">
         <v>126.9687252395235</v>
       </c>
       <c r="K11" t="n">
-        <v>141.934822585576</v>
+        <v>126.9687252395235</v>
       </c>
       <c r="L11" t="n">
-        <v>190.3219518367877</v>
+        <v>175.3558544907351</v>
       </c>
       <c r="M11" t="n">
-        <v>273.0379160149508</v>
+        <v>296.8399092010511</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2498749534004</v>
+        <v>418.3239639113671</v>
       </c>
       <c r="O11" t="n">
-        <v>386.2495795577955</v>
+        <v>454.3236685157622</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577955</v>
+        <v>454.3236685157622</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962278</v>
+        <v>457.4483206431773</v>
       </c>
       <c r="T11" t="n">
-        <v>490.8446654962278</v>
+        <v>428.9557724873364</v>
       </c>
       <c r="U11" t="n">
-        <v>434.3415156436243</v>
+        <v>372.4526226347329</v>
       </c>
       <c r="V11" t="n">
-        <v>310.3908425385163</v>
+        <v>372.4526226347329</v>
       </c>
       <c r="W11" t="n">
-        <v>310.3908425385163</v>
+        <v>372.4526226347329</v>
       </c>
       <c r="X11" t="n">
-        <v>310.3908425385163</v>
+        <v>372.4526226347329</v>
       </c>
       <c r="Y11" t="n">
-        <v>186.4401694334082</v>
+        <v>372.4526226347329</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.3607474293879</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K12" t="n">
-        <v>48.69249843149191</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2520893996964</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="M12" t="n">
-        <v>167.2520893996964</v>
+        <v>170.1765531418079</v>
       </c>
       <c r="N12" t="n">
-        <v>284.6566804676654</v>
+        <v>284.6566804676642</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779818</v>
+        <v>406.1407351779802</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.6416242957316</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R12" t="n">
-        <v>484.6416242957316</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S12" t="n">
-        <v>484.6416242957316</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T12" t="n">
-        <v>463.6958141610606</v>
+        <v>430.6520026679696</v>
       </c>
       <c r="U12" t="n">
-        <v>420.2451836823257</v>
+        <v>306.7013295628619</v>
       </c>
       <c r="V12" t="n">
-        <v>373.338768502515</v>
+        <v>259.7949143830512</v>
       </c>
       <c r="W12" t="n">
-        <v>300.1135021493615</v>
+        <v>186.5696480298977</v>
       </c>
       <c r="X12" t="n">
-        <v>276.7788106826131</v>
+        <v>163.2349565631493</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.311420534496</v>
+        <v>133.7675664150322</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816893309924557</v>
+        <v>83.38399921969014</v>
       </c>
       <c r="K13" t="n">
-        <v>9.816893309924557</v>
+        <v>204.8680539300061</v>
       </c>
       <c r="L13" t="n">
-        <v>131.300948020241</v>
+        <v>204.8680539300061</v>
       </c>
       <c r="M13" t="n">
-        <v>252.7850027305573</v>
+        <v>204.8680539300061</v>
       </c>
       <c r="N13" t="n">
-        <v>252.7850027305573</v>
+        <v>326.3521086403221</v>
       </c>
       <c r="O13" t="n">
-        <v>318.6055623903596</v>
+        <v>326.3521086403221</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903596</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295969</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347155</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688456</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135988</v>
       </c>
       <c r="V13" t="n">
         <v>158.0358081074774</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995651</v>
+        <v>60.96597254995648</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757987</v>
+        <v>32.97820939757984</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>490.8446654962278</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="C14" t="n">
-        <v>490.8446654962278</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="D14" t="n">
-        <v>381.6689126252487</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="E14" t="n">
-        <v>381.6689126252487</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="F14" t="n">
-        <v>257.7182395201406</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7675664150326</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J14" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907352</v>
+        <v>252.7850027305565</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0718186688983</v>
+        <v>335.5009669087196</v>
       </c>
       <c r="N14" t="n">
-        <v>335.2837776073478</v>
+        <v>412.7129258471691</v>
       </c>
       <c r="O14" t="n">
-        <v>371.2834822117429</v>
+        <v>448.7126304515642</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962278</v>
+        <v>448.7126304515642</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="W14" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="X14" t="n">
-        <v>490.8446654962278</v>
+        <v>381.6689126252475</v>
       </c>
       <c r="Y14" t="n">
-        <v>490.8446654962278</v>
+        <v>381.6689126252475</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>242.0169930872281</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="C15" t="n">
-        <v>242.0169930872281</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="D15" t="n">
-        <v>242.0169930872281</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="E15" t="n">
-        <v>242.0169930872281</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="F15" t="n">
-        <v>118.06631998212</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="G15" t="n">
-        <v>118.06631998212</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="H15" t="n">
-        <v>118.06631998212</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924557</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K15" t="n">
-        <v>48.69249843149191</v>
+        <v>48.69249843149187</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2520893996964</v>
+        <v>48.69249843149187</v>
       </c>
       <c r="M15" t="n">
-        <v>288.7361441100127</v>
+        <v>170.1765531418079</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407351779818</v>
+        <v>291.6606078521239</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779818</v>
+        <v>413.1446625624399</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.6416242957316</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R15" t="n">
-        <v>484.6416242957316</v>
+        <v>484.64162429573</v>
       </c>
       <c r="S15" t="n">
-        <v>484.6416242957316</v>
+        <v>484.64162429573</v>
       </c>
       <c r="T15" t="n">
-        <v>463.6958141610606</v>
+        <v>463.695814161059</v>
       </c>
       <c r="U15" t="n">
-        <v>420.2451836823257</v>
+        <v>394.1861160467508</v>
       </c>
       <c r="V15" t="n">
-        <v>368.0443410552471</v>
+        <v>347.2797008669401</v>
       </c>
       <c r="W15" t="n">
-        <v>294.8190747020936</v>
+        <v>223.3290277618325</v>
       </c>
       <c r="X15" t="n">
-        <v>271.4843832353452</v>
+        <v>199.994336295084</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.0169930872281</v>
+        <v>170.5269461469669</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924557</v>
+        <v>26.24559604012187</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924557</v>
+        <v>26.24559604012187</v>
       </c>
       <c r="D16" t="n">
-        <v>9.816893309924557</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816893309924557</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="F16" t="n">
-        <v>64.54873410217813</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="G16" t="n">
-        <v>64.54873410217813</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="H16" t="n">
-        <v>64.54873410217813</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="I16" t="n">
-        <v>64.54873410217813</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="J16" t="n">
-        <v>138.1158400119438</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="K16" t="n">
-        <v>197.1215076800432</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="L16" t="n">
-        <v>197.1215076800432</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="M16" t="n">
-        <v>197.1215076800432</v>
+        <v>74.78422648043403</v>
       </c>
       <c r="N16" t="n">
-        <v>197.1215076800432</v>
+        <v>196.26828119075</v>
       </c>
       <c r="O16" t="n">
-        <v>197.1215076800432</v>
+        <v>197.1215076800435</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903596</v>
+        <v>318.6055623903595</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="R16" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295969</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347155</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688456</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135988</v>
       </c>
       <c r="V16" t="n">
         <v>158.0358081074774</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995651</v>
+        <v>60.96597254995648</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757987</v>
+        <v>32.97820939757984</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154754</v>
+        <v>317.4102657154745</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633682</v>
+        <v>287.5525337633675</v>
       </c>
       <c r="D17" t="n">
-        <v>270.253728820303</v>
+        <v>270.2537288203023</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111683</v>
+        <v>218.9076992111678</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733696</v>
+        <v>135.5209245733691</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400234</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L17" t="n">
-        <v>58.20402256113621</v>
+        <v>58.20402256113618</v>
       </c>
       <c r="M17" t="n">
-        <v>140.9199867392994</v>
+        <v>140.9199867392993</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1319456777489</v>
+        <v>218.1319456777488</v>
       </c>
       <c r="O17" t="n">
         <v>254.131650282144</v>
@@ -5537,28 +5537,28 @@
         <v>254.131650282144</v>
       </c>
       <c r="R17" t="n">
-        <v>301.1611192690587</v>
+        <v>375.6157049924599</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111764</v>
+        <v>468.0543725345777</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962278</v>
+        <v>468.0543725345777</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V17" t="n">
-        <v>490.608866647178</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227596</v>
+        <v>473.1845019227583</v>
       </c>
       <c r="X17" t="n">
-        <v>433.652813492342</v>
+        <v>433.6528134923408</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914761</v>
+        <v>371.390970391475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="C18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="D18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="E18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="F18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="G18" t="n">
-        <v>62.27751947477149</v>
+        <v>242.0169930872276</v>
       </c>
       <c r="H18" t="n">
-        <v>62.27751947477149</v>
+        <v>118.0663199821199</v>
       </c>
       <c r="I18" t="n">
-        <v>62.27751947477149</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K18" t="n">
-        <v>48.69249843149191</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996964</v>
+        <v>167.2520893996963</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7361441100127</v>
+        <v>247.8765560755942</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407351779818</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779818</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.6416242957316</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R18" t="n">
-        <v>360.6909511906235</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="S18" t="n">
-        <v>360.6909511906235</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="T18" t="n">
-        <v>310.1788656849876</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="U18" t="n">
-        <v>186.2281925798795</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="V18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="W18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="X18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.27751947477149</v>
+        <v>360.6909511906224</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154758</v>
+        <v>317.4102657154747</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633687</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203034</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111686</v>
+        <v>218.9076992111678</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733697</v>
+        <v>135.5209245733691</v>
       </c>
       <c r="G20" t="n">
-        <v>36.3480310640024</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J20" t="n">
-        <v>131.300948020241</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K20" t="n">
-        <v>176.7382205619542</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L20" t="n">
-        <v>225.1253498131658</v>
+        <v>58.20402256113618</v>
       </c>
       <c r="M20" t="n">
-        <v>307.841313991329</v>
+        <v>140.9199867392993</v>
       </c>
       <c r="N20" t="n">
-        <v>385.0532729297785</v>
+        <v>218.1319456777488</v>
       </c>
       <c r="O20" t="n">
-        <v>421.0529775341736</v>
+        <v>254.131650282144</v>
       </c>
       <c r="P20" t="n">
-        <v>421.0529775341736</v>
+        <v>254.131650282144</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.0529775341736</v>
+        <v>375.6157049924599</v>
       </c>
       <c r="R20" t="n">
-        <v>421.0529775341736</v>
+        <v>375.6157049924599</v>
       </c>
       <c r="S20" t="n">
-        <v>421.0529775341736</v>
+        <v>468.0543725345777</v>
       </c>
       <c r="T20" t="n">
-        <v>421.0529775341736</v>
+        <v>468.0543725345777</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471783</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W20" t="n">
-        <v>473.18450192276</v>
+        <v>473.1845019227583</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923424</v>
+        <v>433.6528134923409</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914765</v>
+        <v>371.3909703914752</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="C21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="D21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="E21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="F21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="G21" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="H21" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="I21" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K21" t="n">
-        <v>48.69249843149191</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996964</v>
+        <v>167.2520893996963</v>
       </c>
       <c r="M21" t="n">
-        <v>284.6566804676654</v>
+        <v>288.7361441100123</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676654</v>
+        <v>406.1407351779802</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779818</v>
+        <v>406.1407351779802</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957316</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R21" t="n">
-        <v>360.6909511906235</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="S21" t="n">
-        <v>360.6909511906235</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="T21" t="n">
-        <v>294.477619252075</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="U21" t="n">
-        <v>170.5269461469669</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="V21" t="n">
-        <v>170.5269461469669</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="W21" t="n">
-        <v>170.5269461469669</v>
+        <v>360.6909511906224</v>
       </c>
       <c r="X21" t="n">
-        <v>170.5269461469669</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.5269461469669</v>
+        <v>112.7896049804071</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154746</v>
+        <v>317.4102657154745</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633673</v>
+        <v>287.5525337633674</v>
       </c>
       <c r="D23" t="n">
         <v>270.2537288203022</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111674</v>
+        <v>218.9076992111675</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733687</v>
+        <v>135.5209245733689</v>
       </c>
       <c r="G23" t="n">
-        <v>36.3480310640024</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I23" t="n">
-        <v>89.06417631464143</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J23" t="n">
-        <v>89.06417631464143</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K23" t="n">
-        <v>89.06417631464143</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L23" t="n">
-        <v>137.4513055658531</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="M23" t="n">
-        <v>220.1672697440163</v>
+        <v>214.0169121984037</v>
       </c>
       <c r="N23" t="n">
-        <v>297.3792286824657</v>
+        <v>335.5009669087197</v>
       </c>
       <c r="O23" t="n">
-        <v>333.3789332868608</v>
+        <v>456.9850216190357</v>
       </c>
       <c r="P23" t="n">
-        <v>333.3789332868608</v>
+        <v>456.9850216190357</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.3789332868608</v>
+        <v>456.9850216190357</v>
       </c>
       <c r="R23" t="n">
-        <v>333.3789332868608</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S23" t="n">
-        <v>333.3789332868608</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T23" t="n">
-        <v>421.0529775341736</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471775</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227589</v>
+        <v>473.1845019227583</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923413</v>
+        <v>433.6528134923408</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914753</v>
+        <v>371.390970391475</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>294.477619252075</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="C24" t="n">
-        <v>294.477619252075</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="D24" t="n">
-        <v>294.477619252075</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="E24" t="n">
-        <v>294.477619252075</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="F24" t="n">
-        <v>294.477619252075</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="G24" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="H24" t="n">
-        <v>170.5269461469669</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="I24" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477145</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924557</v>
+        <v>48.69249843149188</v>
       </c>
       <c r="L24" t="n">
-        <v>128.376484278129</v>
+        <v>163.1726257573482</v>
       </c>
       <c r="M24" t="n">
-        <v>249.8605389884454</v>
+        <v>284.6566804676642</v>
       </c>
       <c r="N24" t="n">
-        <v>369.3606107859114</v>
+        <v>406.1407351779802</v>
       </c>
       <c r="O24" t="n">
-        <v>490.8446654962278</v>
+        <v>406.1407351779802</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.6416242957316</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R24" t="n">
-        <v>360.6909511906235</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S24" t="n">
-        <v>360.6909511906235</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T24" t="n">
-        <v>360.6909511906235</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="U24" t="n">
-        <v>360.6909511906235</v>
+        <v>242.943319286011</v>
       </c>
       <c r="V24" t="n">
-        <v>360.6909511906235</v>
+        <v>242.943319286011</v>
       </c>
       <c r="W24" t="n">
-        <v>360.6909511906235</v>
+        <v>242.943319286011</v>
       </c>
       <c r="X24" t="n">
-        <v>360.6909511906235</v>
+        <v>242.943319286011</v>
       </c>
       <c r="Y24" t="n">
-        <v>294.477619252075</v>
+        <v>186.2281925798791</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924557</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686429</v>
+        <v>885.8369123686422</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666785</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986446</v>
+        <v>599.564282498644</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019466</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G26" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336799</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070294</v>
+        <v>64.03178362070307</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112218</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778248</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613044</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419206</v>
+        <v>929.9084159419189</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.91175310599</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936005</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543469</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519005</v>
+        <v>1785.188566519004</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.710490556109</v>
+        <v>1803.710490556108</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823154</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.617585787407</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054895</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.724471163631</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.303144314549</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>534.8728974136681</v>
+        <v>478.6669566008713</v>
       </c>
       <c r="C27" t="n">
-        <v>534.8728974136681</v>
+        <v>478.6669566008713</v>
       </c>
       <c r="D27" t="n">
-        <v>374.0927811746998</v>
+        <v>317.8868403619031</v>
       </c>
       <c r="E27" t="n">
-        <v>374.0927811746998</v>
+        <v>144.3236364833176</v>
       </c>
       <c r="F27" t="n">
-        <v>213.6650648919439</v>
+        <v>144.3236364833176</v>
       </c>
       <c r="G27" t="n">
-        <v>196.7842626481645</v>
+        <v>144.3236364833176</v>
       </c>
       <c r="H27" t="n">
-        <v>196.7842626481645</v>
+        <v>144.3236364833176</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53483597596912</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112218</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268953</v>
+        <v>74.94981493268951</v>
       </c>
       <c r="L27" t="n">
         <v>193.509405900894</v>
@@ -6327,28 +6327,28 @@
         <v>794.5378533682771</v>
       </c>
       <c r="R27" t="n">
-        <v>658.8151364543406</v>
+        <v>781.1450485684787</v>
       </c>
       <c r="S27" t="n">
-        <v>658.8151364543406</v>
+        <v>781.1450485684787</v>
       </c>
       <c r="T27" t="n">
-        <v>656.7673204397635</v>
+        <v>779.0972325539017</v>
       </c>
       <c r="U27" t="n">
-        <v>632.2146840811223</v>
+        <v>754.5445961952606</v>
       </c>
       <c r="V27" t="n">
-        <v>604.2062630214054</v>
+        <v>726.5361751355439</v>
       </c>
       <c r="W27" t="n">
-        <v>549.8789907883458</v>
+        <v>672.2089029024843</v>
       </c>
       <c r="X27" t="n">
-        <v>545.4422934416913</v>
+        <v>667.7722055558297</v>
       </c>
       <c r="Y27" t="n">
-        <v>534.8728974136681</v>
+        <v>657.2028095278065</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112218</v>
+        <v>71.02483657842355</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112218</v>
+        <v>71.02483657842355</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112218</v>
+        <v>71.02483657842355</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112218</v>
+        <v>71.02483657842355</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112218</v>
+        <v>144.2786014077812</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112218</v>
+        <v>144.2786014077812</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112218</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112218</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112218</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07420981112218</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="L28" t="n">
-        <v>215.7394629272702</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="M28" t="n">
-        <v>215.7394629272702</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="N28" t="n">
-        <v>215.7394629272702</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="O28" t="n">
-        <v>215.7394629272702</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901377</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901377</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901377</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153501</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695741</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344211</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483935</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096642</v>
+        <v>49.42730081096628</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868364</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112218</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686423</v>
+        <v>885.8369123686422</v>
       </c>
       <c r="D29" t="n">
-        <v>759.724209766678</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E29" t="n">
         <v>599.564282498644</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019461</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G29" t="n">
         <v>199.3768190336799</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070292</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I29" t="n">
         <v>36.07420981112217</v>
@@ -6464,13 +6464,13 @@
         <v>171.7479657778252</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613047</v>
+        <v>377.222566061305</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381366</v>
+        <v>636.4010735381364</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419197</v>
+        <v>929.9084159419194</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105989</v>
@@ -6494,16 +6494,16 @@
         <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
         <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.303144314548</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.53483597596909</v>
+        <v>1458.49391327829</v>
       </c>
       <c r="C30" t="n">
-        <v>88.53483597596909</v>
+        <v>1458.49391327829</v>
       </c>
       <c r="D30" t="n">
-        <v>88.53483597596909</v>
+        <v>1458.49391327829</v>
       </c>
       <c r="E30" t="n">
-        <v>88.53483597596909</v>
+        <v>1284.930709399705</v>
       </c>
       <c r="F30" t="n">
-        <v>88.53483597596909</v>
+        <v>1189.285116762343</v>
       </c>
       <c r="G30" t="n">
-        <v>88.53483597596909</v>
+        <v>1039.043805798457</v>
       </c>
       <c r="H30" t="n">
-        <v>88.53483597596909</v>
+        <v>1039.043805798457</v>
       </c>
       <c r="I30" t="n">
-        <v>88.53483597596909</v>
+        <v>1039.043805798457</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112217</v>
+        <v>1039.043805798457</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268955</v>
+        <v>1077.919410920024</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>1196.479001888229</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836086</v>
+        <v>1379.587116670943</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763009</v>
+        <v>1585.961447963636</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0369642505273</v>
+        <v>1719.006560237862</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687733</v>
+        <v>1803.710490556108</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5378533682772</v>
+        <v>1797.507449355612</v>
       </c>
       <c r="R30" t="n">
-        <v>658.8151364543407</v>
+        <v>1797.507449355612</v>
       </c>
       <c r="S30" t="n">
-        <v>658.8151364543407</v>
+        <v>1797.507449355612</v>
       </c>
       <c r="T30" t="n">
-        <v>656.7673204397636</v>
+        <v>1580.388336304386</v>
       </c>
       <c r="U30" t="n">
-        <v>417.1433870444733</v>
+        <v>1555.835699945744</v>
       </c>
       <c r="V30" t="n">
-        <v>174.0636689481074</v>
+        <v>1527.827278886028</v>
       </c>
       <c r="W30" t="n">
-        <v>119.7363967150478</v>
+        <v>1473.500006652968</v>
       </c>
       <c r="X30" t="n">
-        <v>115.2996993683932</v>
+        <v>1469.063309306314</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.53483597596909</v>
+        <v>1458.49391327829</v>
       </c>
     </row>
     <row r="31">
@@ -6607,61 +6607,61 @@
         <v>36.07420981112217</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112217</v>
+        <v>49.08940196286937</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112217</v>
+        <v>92.87174940704854</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112217</v>
+        <v>92.87174940704854</v>
       </c>
       <c r="I31" t="n">
-        <v>83.8035860078614</v>
+        <v>92.87174940704854</v>
       </c>
       <c r="J31" t="n">
-        <v>125.2219690522511</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="K31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="L31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901376</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901376</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901376</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153501</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T31" t="n">
-        <v>236.613428169574</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U31" t="n">
-        <v>160.112709034421</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483934</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096641</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868363</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07420981112217</v>
@@ -6677,34 +6677,34 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686421</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D32" t="n">
         <v>759.7242097666776</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986436</v>
+        <v>599.5642824986438</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019457</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336793</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070297</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778254</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613046</v>
+        <v>377.2225660613049</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381369</v>
+        <v>636.4010735381366</v>
       </c>
       <c r="M32" t="n">
         <v>929.9084159419197</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>455.5243172909553</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="C33" t="n">
-        <v>266.112043023919</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="D33" t="n">
-        <v>266.112043023919</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="E33" t="n">
-        <v>92.54883914533346</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="F33" t="n">
-        <v>92.54883914533346</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G33" t="n">
-        <v>92.54883914533346</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H33" t="n">
-        <v>92.54883914533346</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268953</v>
+        <v>74.94981493268952</v>
       </c>
       <c r="L33" t="n">
         <v>193.509405900894</v>
@@ -6795,34 +6795,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7408945687733</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="Q33" t="n">
-        <v>794.5378533682772</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="R33" t="n">
-        <v>794.5378533682772</v>
+        <v>800.7408945687732</v>
       </c>
       <c r="S33" t="n">
-        <v>794.5378533682772</v>
+        <v>607.3219113876078</v>
       </c>
       <c r="T33" t="n">
-        <v>792.4900373537</v>
+        <v>390.2027983363815</v>
       </c>
       <c r="U33" t="n">
-        <v>767.9374009950589</v>
+        <v>365.6501619777404</v>
       </c>
       <c r="V33" t="n">
-        <v>524.8576828986929</v>
+        <v>337.6417409180236</v>
       </c>
       <c r="W33" t="n">
-        <v>470.5304106656333</v>
+        <v>283.3144686849641</v>
       </c>
       <c r="X33" t="n">
-        <v>466.0937133189786</v>
+        <v>207.0713221219013</v>
       </c>
       <c r="Y33" t="n">
-        <v>455.5243172909553</v>
+        <v>196.5019260938781</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.02483657842345</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C34" t="n">
-        <v>71.02483657842345</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D34" t="n">
-        <v>71.02483657842345</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="E34" t="n">
-        <v>71.02483657842345</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="F34" t="n">
-        <v>71.02483657842345</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="G34" t="n">
-        <v>114.8071840226025</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="H34" t="n">
-        <v>161.4745194402715</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="I34" t="n">
-        <v>209.2038956370107</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="J34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="K34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="L34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="M34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="N34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="O34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="P34" t="n">
-        <v>270.203950090138</v>
+        <v>195.223794235408</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.203950090138</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R34" t="n">
-        <v>270.203950090138</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153504</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695743</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344213</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483936</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096651</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868368</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561342</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457948</v>
+        <v>669.3219062457957</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444988</v>
+        <v>578.9573114444996</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771339</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811042</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135061</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H35" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I35" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586247</v>
       </c>
       <c r="J35" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586247</v>
       </c>
       <c r="K35" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586247</v>
       </c>
       <c r="L35" t="n">
-        <v>320.4725444334641</v>
+        <v>82.27994811707413</v>
       </c>
       <c r="M35" t="n">
-        <v>645.4068361357844</v>
+        <v>407.2142398193949</v>
       </c>
       <c r="N35" t="n">
-        <v>968.4468937552888</v>
+        <v>730.2542974388991</v>
       </c>
       <c r="O35" t="n">
-        <v>1004.446598359684</v>
+        <v>1012.082100724349</v>
       </c>
       <c r="P35" t="n">
-        <v>1108.252109681843</v>
+        <v>1075.520352091372</v>
       </c>
       <c r="Q35" t="n">
-        <v>1266.405840112815</v>
+        <v>1233.674082522344</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112815</v>
+        <v>1287.232727014883</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.232727014883</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059882</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.008777128041</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.70718842076</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.217033838111</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549463</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903659</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>199.8205203797831</v>
+        <v>365.9109017321198</v>
       </c>
       <c r="C36" t="n">
-        <v>199.8205203797831</v>
+        <v>176.4986274650836</v>
       </c>
       <c r="D36" t="n">
-        <v>199.8205203797831</v>
+        <v>176.4986274650836</v>
       </c>
       <c r="E36" t="n">
-        <v>26.2573165011976</v>
+        <v>176.4986274650836</v>
       </c>
       <c r="F36" t="n">
-        <v>26.2573165011976</v>
+        <v>176.4986274650836</v>
       </c>
       <c r="G36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="H36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276498</v>
+        <v>65.132921622765</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7032,34 +7032,34 @@
         <v>706.2200709406027</v>
       </c>
       <c r="P36" t="n">
-        <v>790.9240012588488</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.7209600583526</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R36" t="n">
-        <v>708.8430230447821</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S36" t="n">
-        <v>708.8430230447821</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="T36" t="n">
-        <v>708.8430230447821</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="U36" t="n">
-        <v>469.2190896494918</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="V36" t="n">
-        <v>469.2190896494918</v>
+        <v>597.5050180776832</v>
       </c>
       <c r="W36" t="n">
-        <v>199.8205203797831</v>
+        <v>578.9258536452918</v>
       </c>
       <c r="X36" t="n">
-        <v>199.8205203797831</v>
+        <v>578.9258536452918</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.8205203797831</v>
+        <v>365.9109017321198</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="C37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="D37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="E37" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="F37" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="G37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="I37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="J37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="K37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="N37" t="n">
-        <v>109.4336614724409</v>
+        <v>105.0763844008117</v>
       </c>
       <c r="O37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="P37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="R37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="S37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="T37" t="n">
-        <v>109.4336614724409</v>
+        <v>106.2634878239919</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795625</v>
+        <v>65.51087648950715</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795625</v>
+        <v>68.68105013795643</v>
       </c>
       <c r="W37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="X37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561326</v>
+        <v>772.2454280561338</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457947</v>
+        <v>669.3219062457957</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444987</v>
+        <v>578.9573114444996</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771332</v>
+        <v>454.5454919771339</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811036</v>
+        <v>298.0929274811043</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135061</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586259</v>
+        <v>33.89281886586247</v>
       </c>
       <c r="J38" t="n">
-        <v>33.89281886586259</v>
+        <v>33.89281886586247</v>
       </c>
       <c r="K38" t="n">
-        <v>110.7537278510395</v>
+        <v>274.404139604777</v>
       </c>
       <c r="L38" t="n">
-        <v>159.1408571022512</v>
+        <v>568.6193675370432</v>
       </c>
       <c r="M38" t="n">
-        <v>484.0751488045715</v>
+        <v>651.3353317152064</v>
       </c>
       <c r="N38" t="n">
-        <v>807.1152064240758</v>
+        <v>974.3753893347106</v>
       </c>
       <c r="O38" t="n">
-        <v>843.1149110284709</v>
+        <v>1212.847195620278</v>
       </c>
       <c r="P38" t="n">
-        <v>1075.52035209137</v>
+        <v>1212.847195620278</v>
       </c>
       <c r="Q38" t="n">
-        <v>1233.674082522341</v>
+        <v>1212.847195620278</v>
       </c>
       <c r="R38" t="n">
-        <v>1287.232727014881</v>
+        <v>1266.405840112817</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.232727014883</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059882</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.00877712804</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.70718842076</v>
       </c>
       <c r="W38" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.217033838111</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549462</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903639</v>
+        <v>899.2919225903654</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>421.8843692004351</v>
+        <v>294.9344594561489</v>
       </c>
       <c r="C39" t="n">
-        <v>421.8843692004351</v>
+        <v>294.9344594561489</v>
       </c>
       <c r="D39" t="n">
-        <v>421.8843692004351</v>
+        <v>294.9344594561489</v>
       </c>
       <c r="E39" t="n">
-        <v>421.8843692004351</v>
+        <v>294.9344594561489</v>
       </c>
       <c r="F39" t="n">
-        <v>261.4566529176792</v>
+        <v>134.5067431733931</v>
       </c>
       <c r="G39" t="n">
-        <v>261.4566529176792</v>
+        <v>134.5067431733931</v>
       </c>
       <c r="H39" t="n">
-        <v>134.506743173393</v>
+        <v>134.5067431733931</v>
       </c>
       <c r="I39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276498</v>
+        <v>65.132921622765</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7269,34 +7269,34 @@
         <v>706.2200709406027</v>
       </c>
       <c r="P39" t="n">
-        <v>790.9240012588488</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.7209600583526</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="R39" t="n">
-        <v>784.7209600583526</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S39" t="n">
-        <v>784.7209600583526</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="T39" t="n">
-        <v>567.6018470071264</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="U39" t="n">
-        <v>567.6018470071264</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="V39" t="n">
-        <v>567.6018470071264</v>
+        <v>533.021618271844</v>
       </c>
       <c r="W39" t="n">
-        <v>549.0226825747351</v>
+        <v>514.4424538394526</v>
       </c>
       <c r="X39" t="n">
-        <v>549.0226825747351</v>
+        <v>294.9344594561489</v>
       </c>
       <c r="Y39" t="n">
-        <v>549.0226825747351</v>
+        <v>294.9344594561489</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="D40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="E40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="F40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="G40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="H40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J40" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="K40" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="M40" t="n">
-        <v>109.4336614724409</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="N40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="O40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="P40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="R40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="S40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="T40" t="n">
-        <v>109.4336614724409</v>
+        <v>109.4336614724412</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795625</v>
+        <v>68.68105013795643</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795625</v>
+        <v>68.68105013795643</v>
       </c>
       <c r="W40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="X40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119764</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780264</v>
+        <v>820.896517878027</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766008</v>
+        <v>710.1824620766014</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842173</v>
+        <v>612.0273332842178</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257641</v>
+        <v>479.8249798257646</v>
       </c>
       <c r="F41" t="n">
-        <v>315.581881338647</v>
+        <v>315.5818813386472</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5526639799621</v>
+        <v>135.5526639799622</v>
       </c>
       <c r="H41" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I41" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2401764340391</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1159948082887</v>
+        <v>29.46776830648008</v>
       </c>
       <c r="L41" t="n">
-        <v>710.6957203758902</v>
+        <v>316.0474938740816</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4116845540534</v>
+        <v>636.9560543686346</v>
       </c>
       <c r="N41" t="n">
-        <v>870.623643492503</v>
+        <v>952.3606096234739</v>
       </c>
       <c r="O41" t="n">
-        <v>1144.815944413288</v>
+        <v>1226.552910544259</v>
       </c>
       <c r="P41" t="n">
-        <v>1369.585883111522</v>
+        <v>1226.552910544259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1369.585883111522</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.2601188283</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.612536905371</v>
+        <v>1398.612536905372</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.520414207002</v>
+        <v>1317.520414207003</v>
       </c>
       <c r="W41" t="n">
         <v>1219.239725633266</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033454</v>
+        <v>955.7335464033461</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="C42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="D42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="E42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="G42" t="n">
-        <v>155.1151121208521</v>
+        <v>156.0220465992602</v>
       </c>
       <c r="H42" t="n">
-        <v>28.16520237656599</v>
+        <v>29.07213685497406</v>
       </c>
       <c r="I42" t="n">
-        <v>28.16520237656599</v>
+        <v>29.07213685497406</v>
       </c>
       <c r="J42" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813338</v>
+        <v>67.04080749813336</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6003984663379</v>
+        <v>185.6003984663378</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7085132490525</v>
+        <v>368.7085132490524</v>
       </c>
       <c r="N42" t="n">
-        <v>575.0828445417449</v>
+        <v>575.0828445417447</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1279568159712</v>
+        <v>708.1279568159711</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8318871342173</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q42" t="n">
-        <v>786.6288459337211</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="R42" t="n">
-        <v>650.9061290197847</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="S42" t="n">
-        <v>457.4871458386192</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="T42" t="n">
-        <v>457.4871458386192</v>
+        <v>575.7127740829909</v>
       </c>
       <c r="U42" t="n">
-        <v>217.863212443329</v>
+        <v>575.7127740829909</v>
       </c>
       <c r="V42" t="n">
-        <v>181.484810544331</v>
+        <v>575.6619268328548</v>
       </c>
       <c r="W42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="X42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
       <c r="Y42" t="n">
-        <v>155.1151121208521</v>
+        <v>306.2633575631461</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.07862115229415</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085911</v>
+        <v>82.93546298085917</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441227</v>
+        <v>78.3794700044123</v>
       </c>
       <c r="W43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="X43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.896517878027</v>
+        <v>820.8965178780276</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766015</v>
+        <v>710.1824620766022</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842178</v>
+        <v>612.0273332842185</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257644</v>
+        <v>479.8249798257651</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386472</v>
+        <v>315.5818813386479</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5526639799621</v>
+        <v>135.5526639799622</v>
       </c>
       <c r="H44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="I44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="J44" t="n">
         <v>191.2401764340391</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082887</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L44" t="n">
-        <v>710.6957203758902</v>
+        <v>710.6957203758901</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4116845540534</v>
+        <v>1031.604280870443</v>
       </c>
       <c r="N44" t="n">
-        <v>870.623643492503</v>
+        <v>1144.63006381199</v>
       </c>
       <c r="O44" t="n">
-        <v>987.0488099358852</v>
+        <v>1180.629768416386</v>
       </c>
       <c r="P44" t="n">
-        <v>1211.818748634119</v>
+        <v>1180.629768416386</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.336976700426</v>
+        <v>1331.147996482692</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.2601188283</v>
+        <v>1377.071138610566</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147967</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.2601188283</v>
+        <v>1408.260118828301</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.612536905371</v>
+        <v>1398.612536905372</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.520414207003</v>
+        <v>1317.520414207004</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033461</v>
+        <v>955.7335464033466</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.5774766436023</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="C45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="D45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="E45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="F45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="G45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="H45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="I45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="J45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="K45" t="n">
         <v>67.04080749813338</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663379</v>
+        <v>185.6003984663378</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7085132490525</v>
+        <v>368.7085132490524</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417449</v>
+        <v>575.0828445417447</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159712</v>
+        <v>708.1279568159711</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342173</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6288459337211</v>
+        <v>786.628845933721</v>
       </c>
       <c r="R45" t="n">
-        <v>786.6288459337211</v>
+        <v>650.9061290197845</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6288459337211</v>
+        <v>650.9061290197845</v>
       </c>
       <c r="T45" t="n">
-        <v>662.1578086394425</v>
+        <v>433.7870159685583</v>
       </c>
       <c r="U45" t="n">
-        <v>422.5338752441523</v>
+        <v>297.6146188964108</v>
       </c>
       <c r="V45" t="n">
-        <v>422.4830279940162</v>
+        <v>54.53490080004491</v>
       </c>
       <c r="W45" t="n">
-        <v>396.1133295705374</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="X45" t="n">
-        <v>396.1133295705374</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="Y45" t="n">
-        <v>396.1133295705374</v>
+        <v>28.16520237656602</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="C46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="D46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="E46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="F46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>102.2337558850052</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="J46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="K46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="L46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="M46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="N46" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085911</v>
+        <v>82.9354629808592</v>
       </c>
       <c r="V46" t="n">
-        <v>78.37947000441227</v>
+        <v>78.37947000441233</v>
       </c>
       <c r="W46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="X46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656602</v>
       </c>
     </row>
   </sheetData>
@@ -8772,16 +8772,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M12" t="n">
-        <v>116.8191896102882</v>
+        <v>239.5303559843448</v>
       </c>
       <c r="N12" t="n">
-        <v>220.7454341052052</v>
+        <v>217.7914303252934</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681794</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5303559843452</v>
+        <v>239.5303559843448</v>
       </c>
       <c r="N15" t="n">
-        <v>220.7454341052052</v>
+        <v>224.8661044510102</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8337805941225</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>199.2891999529625</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9249,16 +9249,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843452</v>
+        <v>198.2580448384679</v>
       </c>
       <c r="N18" t="n">
-        <v>220.7454341052052</v>
+        <v>224.8661044510102</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8337805941224</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9486,13 +9486,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>235.4096856385398</v>
+        <v>239.5303559843448</v>
       </c>
       <c r="N21" t="n">
-        <v>102.1549380769536</v>
+        <v>220.745434105204</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681794</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>236.1838734108354</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5303559843452</v>
+        <v>239.5303559843448</v>
       </c>
       <c r="N24" t="n">
-        <v>222.8620813067173</v>
+        <v>224.8661044510102</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681794</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P24" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>57.16450411638711</v>
       </c>
       <c r="C11" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>29.97355047139032</v>
       </c>
       <c r="E11" t="n">
-        <v>171.5084774364326</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F11" t="n">
-        <v>86.27651337856686</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>224.6159374354766</v>
+        <v>101.90477106142</v>
       </c>
       <c r="H11" t="n">
         <v>152.7005992377401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705384</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W11" t="n">
         <v>143.6848939383772</v>
@@ -23324,7 +23324,7 @@
         <v>165.5711444073165</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.36283115700327</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.8756704904437</v>
+        <v>57.16450411638711</v>
       </c>
       <c r="C14" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
-        <v>35.4765944125683</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
         <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>86.27651337856686</v>
+        <v>86.27651337856726</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9047710614196</v>
+        <v>101.90477106142</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368311</v>
+        <v>152.7005992377401</v>
       </c>
       <c r="I14" t="n">
         <v>46.38701225037786</v>
@@ -23558,7 +23558,7 @@
         <v>143.6848939383772</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073165</v>
+        <v>57.4871490650475</v>
       </c>
       <c r="Y14" t="n">
         <v>188.0739975310602</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.517186542012496e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330724.4981911723</v>
+        <v>330724.4981911724</v>
       </c>
       <c r="C2" t="n">
-        <v>330724.4981911723</v>
+        <v>330724.4981911724</v>
       </c>
       <c r="D2" t="n">
-        <v>330724.4981911723</v>
+        <v>330724.4981911724</v>
       </c>
       <c r="E2" t="n">
         <v>284996.2833826796</v>
       </c>
       <c r="F2" t="n">
-        <v>284996.2833826797</v>
+        <v>284996.2833826796</v>
       </c>
       <c r="G2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="J2" t="n">
         <v>331394.4558219508</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>331394.4558219506</v>
+      </c>
+      <c r="N2" t="n">
         <v>331394.4558219507</v>
       </c>
-      <c r="I2" t="n">
-        <v>331394.4558219508</v>
-      </c>
-      <c r="J2" t="n">
-        <v>331394.4558219507</v>
-      </c>
-      <c r="K2" t="n">
-        <v>331394.4558219505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>331394.4558219507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>331394.4558219505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>331394.4558219506</v>
-      </c>
       <c r="O2" t="n">
+        <v>331394.455821951</v>
+      </c>
+      <c r="P2" t="n">
         <v>331394.4558219509</v>
-      </c>
-      <c r="P2" t="n">
-        <v>331394.455821951</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649911</v>
+        <v>275420.994764991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889624</v>
+        <v>101147.8182889625</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155064.5154470556</v>
+        <v>155064.5154470555</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889624</v>
+        <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812935</v>
+        <v>28312.5013781292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053827</v>
+        <v>68757.72909053818</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,31 +26433,31 @@
         <v>409186.2663395518</v>
       </c>
       <c r="H4" t="n">
-        <v>409186.2663395517</v>
+        <v>409186.2663395518</v>
       </c>
       <c r="I4" t="n">
         <v>409186.2663395518</v>
       </c>
       <c r="J4" t="n">
-        <v>407456.4004199019</v>
+        <v>407456.400419902</v>
       </c>
       <c r="K4" t="n">
-        <v>407456.4004199018</v>
+        <v>407456.400419902</v>
       </c>
       <c r="L4" t="n">
-        <v>407456.4004199018</v>
+        <v>407456.4004199021</v>
       </c>
       <c r="M4" t="n">
-        <v>406912.0322437917</v>
+        <v>406912.0322437918</v>
       </c>
       <c r="N4" t="n">
-        <v>406912.0322437917</v>
+        <v>406912.0322437918</v>
       </c>
       <c r="O4" t="n">
         <v>407014.9608031418</v>
       </c>
       <c r="P4" t="n">
-        <v>407014.9608031418</v>
+        <v>407014.9608031419</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538859</v>
+        <v>26051.38465538856</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538859</v>
+        <v>26051.38465538856</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505707</v>
+        <v>36680.62957505706</v>
       </c>
       <c r="H5" t="n">
         <v>36680.62957505706</v>
@@ -26491,25 +26491,25 @@
         <v>36680.62957505706</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930414</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
         <v>47579.79330930412</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930411</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170892</v>
       </c>
       <c r="N5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170892</v>
       </c>
       <c r="O5" t="n">
         <v>43895.8092789131</v>
       </c>
       <c r="P5" t="n">
-        <v>43895.8092789131</v>
+        <v>43895.80927891312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149002.746657383</v>
+        <v>-149007.2130415881</v>
       </c>
       <c r="C6" t="n">
-        <v>-149002.746657383</v>
+        <v>-149007.213041588</v>
       </c>
       <c r="D6" t="n">
-        <v>-149002.746657383</v>
+        <v>-149007.2130415881</v>
       </c>
       <c r="E6" t="n">
-        <v>-355159.2834559848</v>
+        <v>-355468.6046055797</v>
       </c>
       <c r="F6" t="n">
-        <v>-79738.28869099362</v>
+        <v>-80047.60984058873</v>
       </c>
       <c r="G6" t="n">
-        <v>-215620.2583816205</v>
+        <v>-215620.2583816207</v>
       </c>
       <c r="H6" t="n">
-        <v>-114472.440092658</v>
+        <v>-114472.4400926583</v>
       </c>
       <c r="I6" t="n">
-        <v>-114472.440092658</v>
+        <v>-114472.4400926582</v>
       </c>
       <c r="J6" t="n">
-        <v>-278706.253354311</v>
+        <v>-278706.2533543108</v>
       </c>
       <c r="K6" t="n">
-        <v>-123641.7379072554</v>
+        <v>-123641.7379072555</v>
       </c>
       <c r="L6" t="n">
-        <v>-224789.5561962176</v>
+        <v>-224789.5561962181</v>
       </c>
       <c r="M6" t="n">
-        <v>-146924.2867916795</v>
+        <v>-146924.2867916793</v>
       </c>
       <c r="N6" t="n">
-        <v>-118611.7854135501</v>
+        <v>-118611.78541355</v>
       </c>
       <c r="O6" t="n">
-        <v>-188274.0433506423</v>
+        <v>-188274.0433506421</v>
       </c>
       <c r="P6" t="n">
-        <v>-119516.3142601039</v>
+        <v>-119516.3142601041</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="G2" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
@@ -26713,13 +26713,13 @@
         <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="N2" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="O2" t="n">
         <v>240.5985821377675</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="I4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390273</v>
+        <v>450.9276226390269</v>
       </c>
       <c r="K4" t="n">
         <v>450.927622639027</v>
@@ -26820,16 +26820,16 @@
         <v>450.927622639027</v>
       </c>
       <c r="M4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649705</v>
       </c>
       <c r="N4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649705</v>
       </c>
       <c r="O4" t="n">
-        <v>352.0650297070749</v>
+        <v>352.065029707075</v>
       </c>
       <c r="P4" t="n">
-        <v>352.065029707075</v>
+        <v>352.0650297070753</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612032</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507959</v>
+        <v>86.48581120507947</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612032</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266169</v>
+        <v>35.39062672266149</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210491</v>
+        <v>23.84857344210457</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612032</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507959</v>
+        <v>86.48581120507947</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,16 +28114,16 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K11" t="n">
-        <v>20.48775281635624</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.15968740621499</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.71928865845101</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>13.55824001833905</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.2115698873897</v>
+        <v>125.4498638692398</v>
       </c>
       <c r="R11" t="n">
         <v>194.2115698873897</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.03932802360877</v>
+        <v>54.03932802360917</v>
       </c>
       <c r="C12" t="n">
-        <v>75.1097359460972</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
@@ -28220,10 +28220,10 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2115698873897</v>
+        <v>155.3571857207398</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V12" t="n">
         <v>194.2115698873897</v>
@@ -28269,28 +28269,28 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346797</v>
+        <v>189.1853049475245</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876648</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M13" t="n">
-        <v>147.1780805900283</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926581</v>
+        <v>138.4992047233224</v>
       </c>
       <c r="O13" t="n">
-        <v>103.2880673836754</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89996696047066</v>
+        <v>117.470371454564</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873897</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R13" t="n">
         <v>194.2115698873897</v>
@@ -28348,13 +28348,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>194.2115698873897</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838603</v>
+        <v>128.0816491438952</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>73.83527824151955</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>134.3271120228693</v>
+        <v>13.55824001833907</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55996792937719</v>
+        <v>131.1175790856014</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873897</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>36.11227274587138</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7388978542471</v>
@@ -28427,7 +28427,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28460,13 +28460,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
+        <v>168.4130929281722</v>
+      </c>
+      <c r="V15" t="n">
         <v>194.2115698873897</v>
       </c>
-      <c r="V15" t="n">
-        <v>188.9700867145945</v>
-      </c>
       <c r="W15" t="n">
-        <v>194.2115698873897</v>
+        <v>143.993417202955</v>
       </c>
       <c r="X15" t="n">
         <v>194.2115698873897</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>194.2115698873897</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959906883239</v>
@@ -28506,10 +28506,10 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
-        <v>194.2115698873897</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K16" t="n">
-        <v>126.0758230866998</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L16" t="n">
         <v>31.44053041360787</v>
@@ -28518,13 +28518,13 @@
         <v>24.46691421597135</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926582</v>
+        <v>138.4992047233224</v>
       </c>
       <c r="O16" t="n">
-        <v>36.80265358589529</v>
+        <v>37.66449852457558</v>
       </c>
       <c r="P16" t="n">
-        <v>180.6111333345276</v>
+        <v>180.6111333345272</v>
       </c>
       <c r="Q16" t="n">
         <v>194.2115698873897</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I17" t="n">
         <v>240.5985821377675</v>
@@ -28609,28 +28609,28 @@
         <v>88.55996792937718</v>
       </c>
       <c r="R17" t="n">
-        <v>241.7160840155863</v>
+        <v>316.9227362614462</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T17" t="n">
-        <v>320.6463427485927</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1496882414672</v>
+        <v>273.1701861825263</v>
       </c>
       <c r="V17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="18">
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7388978542471</v>
+        <v>31.25167933188622</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6804106468432</v>
+        <v>2.96924427278667</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.65432337074013</v>
+        <v>11.65432337074052</v>
       </c>
       <c r="S18" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T18" t="n">
-        <v>164.9409572701344</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>114.5165276872803</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I20" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
-        <v>198.5875524941749</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K20" t="n">
-        <v>51.266717660458</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>13.55824001833905</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937718</v>
+        <v>211.2711343034337</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T20" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>320.6463427485926</v>
+        <v>273.1701861825263</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7388978542471</v>
+        <v>98.73193320366774</v>
       </c>
       <c r="H21" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.65432337074013</v>
+        <v>11.65432337074052</v>
       </c>
       <c r="S21" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T21" t="n">
-        <v>149.3967233015509</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U21" t="n">
-        <v>114.5165276872803</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>94.60174806541404</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="22">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
-        <v>320.6463427485926</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
         <v>75.87638612011797</v>
@@ -29065,16 +29065,16 @@
         <v>5.370482769838588</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>73.83527824151953</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.71928865845101</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>86.34782838981906</v>
       </c>
       <c r="P23" t="n">
         <v>13.55824001833905</v>
@@ -29083,28 +29083,28 @@
         <v>88.55996792937718</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2115698873897</v>
+        <v>228.4132303694003</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>310.9788332155233</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U23" t="n">
-        <v>320.6463427485926</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>36.46114870252198</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,13 +29129,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.0277314801901</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R24" t="n">
-        <v>11.65432337074013</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665739</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8330875148625</v>
+        <v>167.236310694955</v>
       </c>
     </row>
     <row r="25">
@@ -29305,7 +29305,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662841</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N26" t="n">
         <v>212.9205840662826</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29360,13 +29360,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>132.0269036329055</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
         <v>125.6804106468432</v>
@@ -29375,7 +29375,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>121.1066129929967</v>
       </c>
       <c r="S27" t="n">
         <v>191.4847933493538</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29442,13 +29442,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7818614221724</v>
+        <v>197.1692307730602</v>
       </c>
       <c r="I28" t="n">
         <v>164.7090929584652</v>
@@ -29460,7 +29460,7 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L28" t="n">
-        <v>212.9205840662826</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M28" t="n">
         <v>24.46691421597134</v>
@@ -29472,13 +29472,13 @@
         <v>36.80265358589529</v>
       </c>
       <c r="P28" t="n">
-        <v>112.9146004583166</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.8163712014149</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R28" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S28" t="n">
         <v>212.9205840662826</v>
@@ -29536,7 +29536,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="L29" t="n">
         <v>212.9205840662826</v>
@@ -29597,13 +29597,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>64.13430240894004</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.6804106468432</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
         <v>212.9205840662826</v>
@@ -29657,7 +29657,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.8870713755257</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="31">
@@ -29679,40 +29679,40 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>152.0735409575852</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H31" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I31" t="n">
+        <v>164.7090929584652</v>
+      </c>
+      <c r="J31" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="J31" t="n">
-        <v>161.738112447616</v>
-      </c>
       <c r="K31" t="n">
+        <v>66.47413857346797</v>
+      </c>
+      <c r="L31" t="n">
+        <v>31.44053041360786</v>
+      </c>
+      <c r="M31" t="n">
+        <v>24.46691421597134</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.78803834926581</v>
+      </c>
+      <c r="O31" t="n">
+        <v>36.80265358589529</v>
+      </c>
+      <c r="P31" t="n">
+        <v>57.89996696047066</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="L31" t="n">
-        <v>31.44053041360785</v>
-      </c>
-      <c r="M31" t="n">
-        <v>24.46691421597133</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.7880383492658</v>
-      </c>
-      <c r="O31" t="n">
-        <v>36.80265358589527</v>
-      </c>
-      <c r="P31" t="n">
-        <v>57.89996696047065</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>126.8163712014149</v>
       </c>
       <c r="R31" t="n">
         <v>203.2148443806685</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="33">
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -29846,10 +29846,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I33" t="n">
-        <v>51.25704936460428</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93601990319845</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662825</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9205840662825</v>
+        <v>141.8321993420385</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.9205840662825</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,61 +29919,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.9205840662825</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H34" t="n">
-        <v>212.9205840662825</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I34" t="n">
-        <v>212.9205840662825</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J34" t="n">
-        <v>181.5175785170479</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K34" t="n">
         <v>66.47413857346797</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360785</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N34" t="n">
-        <v>15.7880383492658</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589527</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8163712014149</v>
+        <v>202.553902367808</v>
       </c>
       <c r="R34" t="n">
         <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="C35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="D35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="F35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="G35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5985821377675</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="J35" t="n">
-        <v>75.87638612011796</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K35" t="n">
-        <v>5.370482769838553</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L35" t="n">
-        <v>248.3112107889443</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>244.6649772971284</v>
+        <v>244.6649772971289</v>
       </c>
       <c r="N35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="P35" t="n">
-        <v>118.4122918589042</v>
+        <v>77.63728180321121</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2115698873896</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="S35" t="n">
-        <v>248.3112107889443</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="U35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="V35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
     </row>
     <row r="36">
@@ -30065,19 +30065,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.6804106468432</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319845</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,31 +30107,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
-        <v>59.24633210136223</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>12.49948373998538</v>
       </c>
     </row>
     <row r="37">
@@ -30150,13 +30150,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>225.6926512841879</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6959906883239</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="H37" t="n">
         <v>165.7818614221724</v>
@@ -30171,19 +30171,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360785</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N37" t="n">
-        <v>15.7880383492658</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
-        <v>36.80265358589527</v>
+        <v>38.00174795274402</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8163712014149</v>
@@ -30198,13 +30198,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="W37" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="C38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="D38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="E38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="F38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="G38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="H38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="I38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="J38" t="n">
-        <v>75.87638612011796</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K38" t="n">
-        <v>83.00776457304755</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6649772971284</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>204.5172744254268</v>
       </c>
       <c r="P38" t="n">
-        <v>248.3112107889443</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.3112107889443</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="T38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="U38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="V38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="W38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.88356415710872</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30317,13 +30317,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319845</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
         <v>134.3654897447971</v>
@@ -30359,13 +30359,13 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>200.2734836789816</v>
       </c>
       <c r="W39" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30402,25 +30402,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J40" t="n">
-        <v>203.9178719696903</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
         <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360785</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N40" t="n">
-        <v>15.7880383492658</v>
+        <v>99.80454842122901</v>
       </c>
       <c r="O40" t="n">
-        <v>36.80265358589527</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8163712014149</v>
@@ -30435,13 +30435,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889441</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,37 +30481,37 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377675</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5985821377675</v>
+        <v>6.68620593136796</v>
       </c>
       <c r="L41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="O41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="P41" t="n">
+        <v>13.55824001833905</v>
+      </c>
+      <c r="Q41" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="Q41" t="n">
-        <v>88.55996792937717</v>
-      </c>
       <c r="R41" t="n">
-        <v>233.2764544497911</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2739512919082</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U41" t="n">
         <v>240.5985821377675</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319845</v>
+        <v>51.03815476957448</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>204.6343030353942</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>207.8324951859056</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>240.5985821377675</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30645,19 +30645,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L43" t="n">
-        <v>31.44053041360785</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N43" t="n">
-        <v>15.7880383492658</v>
+        <v>120.1450140359986</v>
       </c>
       <c r="O43" t="n">
-        <v>36.80265358589527</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8163712014149</v>
@@ -30727,16 +30727,16 @@
         <v>240.5985821377675</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>36.17557980110887</v>
       </c>
       <c r="O44" t="n">
-        <v>81.23784024140103</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377675</v>
@@ -30745,10 +30745,10 @@
         <v>240.5985821377675</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2739512919082</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377675</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319845</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
-        <v>91.72159499937811</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.4170209599113</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>240.5985821377675</v>
@@ -30870,10 +30870,10 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7818614221724</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7090929584652</v>
+        <v>194.2493479296028</v>
       </c>
       <c r="J46" t="n">
         <v>119.9013618977274</v>
@@ -30882,19 +30882,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360785</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597133</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N46" t="n">
-        <v>15.7880383492658</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O46" t="n">
-        <v>141.159629272628</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047065</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8163712014149</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K30" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J31" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L31" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P31" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J32" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L32" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M32" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O32" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K33" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I34" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J34" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L34" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P34" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J35" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L35" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O35" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K36" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M36" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I37" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J37" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L37" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P37" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J38" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L38" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O38" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K39" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M39" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I40" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J40" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L40" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P40" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J41" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L41" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O41" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K42" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M42" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I43" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J43" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L43" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P43" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638706</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271879</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892297</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722964</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175884</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043636</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983298</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827101838315971</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243504</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K45" t="n">
-        <v>36.0613699661502</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895091</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457415</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471306</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809978</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078951</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362483</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734748</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514254</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J46" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L46" t="n">
-        <v>27.8351680505756</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078604</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P46" t="n">
-        <v>22.6439449519908</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508308</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901142</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>118.3351837672717</v>
       </c>
       <c r="K11" t="n">
-        <v>15.11727004651766</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>48.87588813253703</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784158</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560555</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O11" t="n">
         <v>36.3633379842375</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.6516019580125</v>
+        <v>36.88989593986265</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>39.26828800158319</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N12" t="n">
-        <v>118.5904960282516</v>
+        <v>115.6364922483398</v>
       </c>
       <c r="O12" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P12" t="n">
         <v>85.55952557398588</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.31020798966223</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="L13" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O13" t="n">
-        <v>66.48541379778011</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>59.57040449409334</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672717</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253701</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M14" t="n">
         <v>83.55147896784155</v>
@@ -35662,10 +35662,10 @@
         <v>36.36333798423748</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7688720045303</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>42.55761115622426</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>39.26828800158318</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N15" t="n">
-        <v>118.5904960282516</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398587</v>
+        <v>78.48485144826907</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.59464922242157</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.02891963667895</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.28468766894301</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.31020798966223</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>59.6016845132318</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,13 +35814,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.8618449386802933</v>
       </c>
       <c r="P16" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="Q16" t="n">
         <v>67.39519868597472</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>47.50451412819667</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S17" t="n">
-        <v>93.37239145668451</v>
+        <v>93.37239145668462</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692062</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>23.02049794105909</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M18" t="n">
-        <v>122.711166374057</v>
+        <v>81.4388552281797</v>
       </c>
       <c r="N18" t="n">
-        <v>118.5904960282516</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398588</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>45.89623489061941</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>48.87588813253703</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.37239145668462</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.49665450712548</v>
+        <v>23.02049794105909</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M21" t="n">
-        <v>118.5904960282516</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>118.5904960282504</v>
       </c>
       <c r="O21" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>85.55952557398588</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.04776061082512</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253703</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M23" t="n">
         <v>83.55147896784158</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560555</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O23" t="n">
-        <v>36.3633379842375</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>34.20166048201065</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>88.55964065385125</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.49665450712548</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>115.6364922483397</v>
       </c>
       <c r="M24" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N24" t="n">
-        <v>120.7071432297637</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K26" t="n">
         <v>207.550101296444</v>
@@ -36601,22 +36601,22 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341257</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889293</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.30366340131454</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36738,13 +36738,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.99370184783598</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>31.38736935088788</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.4800536526747</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>55.01463349784596</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.10421286486769</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.705739685614164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K29" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964442</v>
       </c>
       <c r="L29" t="n">
         <v>261.7964721988196</v>
@@ -36853,7 +36853,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889294</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L30" t="n">
         <v>119.7571625941459</v>
@@ -36920,13 +36920,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N30" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O30" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,22 +36975,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.14665873913859</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.22459337795875</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.21149110781741</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.83675054988861</v>
+        <v>93.0192221685552</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4464454928146</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.10421286486769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K32" t="n">
         <v>207.550101296444</v>
@@ -37075,22 +37075,22 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O32" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369053</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889289</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L33" t="n">
         <v>119.7571625941459</v>
@@ -37157,13 +37157,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N33" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O33" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.30366340131442</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.73793381557192</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,16 +37215,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.22459337795864</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.13872264411015</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.21149110781735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.6162166193205</v>
+        <v>93.0192221685552</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>75.7375311663931</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.712628651176601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -37309,31 +37309,31 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>297.1870989214813</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M35" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649705</v>
       </c>
       <c r="N35" t="n">
-        <v>326.3030885045499</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O35" t="n">
-        <v>36.36333798423753</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
-        <v>104.8540518405652</v>
+        <v>64.07904178487216</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.7512428595671</v>
+        <v>159.751242859567</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.09964090155448</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703608</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727219</v>
+        <v>25.89201822727205</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L36" t="n">
         <v>119.7571625941459</v>
@@ -37394,13 +37394,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N36" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O36" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37446,13 +37446,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.0165100719629</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>79.61522010062025</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.199094366848734</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.202195604494221</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176754</v>
+        <v>7.712628651176601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>77.63728180320899</v>
+        <v>242.9407280191055</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253707</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M38" t="n">
-        <v>328.21645626497</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N38" t="n">
-        <v>326.3030885045499</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O38" t="n">
-        <v>36.36333798423753</v>
+        <v>240.8806124096643</v>
       </c>
       <c r="P38" t="n">
-        <v>234.7529707706053</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.7512428595671</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155464</v>
+        <v>54.09964090155448</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.03725949703594</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727219</v>
+        <v>25.89201822727205</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L39" t="n">
         <v>119.7571625941459</v>
@@ -37631,13 +37631,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N39" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O39" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>84.0165100719629</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.0165100719632</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176496</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.228099367929</v>
+        <v>1.315723161529371</v>
       </c>
       <c r="L41" t="n">
         <v>289.4744702703046</v>
       </c>
       <c r="M41" t="n">
-        <v>83.5514789678416</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N41" t="n">
-        <v>77.9918777156056</v>
+        <v>318.590459853373</v>
       </c>
       <c r="O41" t="n">
         <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0403421194285</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>39.06488456240152</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L42" t="n">
         <v>119.7571625941459</v>
@@ -37868,13 +37868,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N42" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O42" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,10 +37911,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.21557452093753</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.14140116579517</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176496</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>235.228099367929</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
         <v>289.4744702703046</v>
       </c>
       <c r="M44" t="n">
-        <v>83.5514789678416</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N44" t="n">
-        <v>77.9918777156056</v>
+        <v>114.1674575167144</v>
       </c>
       <c r="O44" t="n">
-        <v>117.6011782256386</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194285</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083904</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037789</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158321</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L45" t="n">
         <v>119.7571625941459</v>
@@ -38105,13 +38105,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N45" t="n">
-        <v>208.4589204976691</v>
+        <v>208.458920497669</v>
       </c>
       <c r="O45" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398589</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.81672071559514</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>29.54025497113766</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>104.3569756867327</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
